--- a/CSSE-5.xlsx
+++ b/CSSE-5.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 6:34:24 PM</t>
+    <t>Report generated on: 6/29/2024, 7:42:36 PM</t>
   </si>
   <si>
     <t>Color Legend</t>

--- a/CSSE-5.xlsx
+++ b/CSSE-5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 7:42:36 PM</t>
+    <t>Report generated on: 6/30/2024, 9:17:34 AM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -58,7 +58,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Moderately Recommended</t>
+    <t>Below Average</t>
   </si>
   <si>
     <t>Not Recommended</t>
@@ -73,22 +73,25 @@
     <t>["CN","SE","CN Lab"]</t>
   </si>
   <si>
+    <t>["if you want the worst teacher choose here. even if you do all internals properly still wont get marks,very biased.will give 5-7 less marks than expected.even if grade is short by one mark,she wont give","Very biased towards few students,teaches like shit,conducts surprise tests and quizzes and will give 0 if you miss them,no defaulters.Will give 5-6 less than deserving in midsemand endsem,even if you apply for recheck,its of no use.","Worst Teacher in KIIT ever !!","Worst teacher ever, never ever chose her"]</t>
+  </si>
+  <si>
+    <t>Arghya Kundu</t>
+  </si>
+  <si>
+    <t>["SE"]</t>
+  </si>
+  <si>
+    <t>["Mt lena isko kabhi bhool kr bhi"]</t>
+  </si>
+  <si>
+    <t>Swapnomayee Palit</t>
+  </si>
+  <si>
+    <t>["IEC"]</t>
+  </si>
+  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>Arghya Kundu</t>
-  </si>
-  <si>
-    <t>["SE"]</t>
-  </si>
-  <si>
-    <t>["Mt lena isko kabhi bhool kr bhi"]</t>
-  </si>
-  <si>
-    <t>Swapnomayee Palit</t>
-  </si>
-  <si>
-    <t>["IEC"]</t>
   </si>
   <si>
     <t>Amit Kumar</t>
@@ -199,10 +202,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +663,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19" s="8">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>20</v>
@@ -700,15 +703,15 @@
         <v>3</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -717,81 +720,81 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>39</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10">
+        <v>15</v>
+      </c>
+      <c r="D26" s="10">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10">
-        <v>37</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="C28" s="11">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>11</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>20</v>
+      <c r="E28" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25"/>
